--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Coquimbo.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Coquimbo.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R60463a6353424677"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="Rdf7c4dc8a4f949dd"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,1926 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2013-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>63700</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1883906.0300471</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10038299.359861</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36216.070265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2013-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>64109</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1972969.5903851</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10006352.606896</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38071.610836</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2013-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>64701</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1983001.3223906</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10183712.928571</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39082.486499</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2013-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>65268</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1932882.7966844</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10062816.742372</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38137.131481</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2013-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>65736</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1913456.9143696</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10032938.336734</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41136.601189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2013-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>66216</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1972838.5783496</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10931433.538983</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42354.930817</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2013-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>66758</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1939271.1149674</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11332258.397959</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39426.077096</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2013-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>67312</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1894483.0136528</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10653476.023728</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41263.691761</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2013-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>67643</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1894009.6142542</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12027138.135593</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39083.699893</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2013-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>68196</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1873619.9362719</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11457812.600682</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42812.220326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2013-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>68735</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1834577.9461409</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10136820.291525</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43175.182938</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2013-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>69167</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1900165.7557216</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9573306.1966101</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43546.817441</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2014-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>69650</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1903067.1480545</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10295741.912457</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46115.189575</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2014-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>69971</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1944574.2304526</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10799998.597973</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46429.69256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2014-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70649</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1954841.1638664</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10997928.898648</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42084.435291</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2014-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>71165</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1930854.2675894</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11911150.851851</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46253.604251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2014-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>72397</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1901452.7958893</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14769062.047297</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49166.045316</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2014-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73064</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1918635.4929103</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15557061.925423</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45753.512243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2014-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73860</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1864901.7139859</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15024178.894557</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46499.490015</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2014-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74372</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1832821.6747162</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15183405.359322</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48404.116258</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2014-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74888</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1842401.0863556</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17342945.895973</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48120.759031</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2014-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75388</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1809757.2118241</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16700312.234113</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49081.696847</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2014-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75970</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1808717.5894695</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16653469.737541</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50202.26947</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2014-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76524</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1846744.6589828</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16444942.395348</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52122.25426</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2015-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76934</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1849000.0430888</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17036986.21192</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54768.872154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2015-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>77275</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1915628.5250857</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17447737.225165</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55937.040816</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2015-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>77762</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1938859.2135876</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18147295.625</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52662.044677</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2015-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78275</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1933448.7920025</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18357733.983818</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53417.000032</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2015-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78788</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1983123.274293</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18839603.009677</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56976.69871</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2015-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>79511</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1989483.4767139</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20442931.746753</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54335.239172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2015-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80076</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1965828.9211249</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21041045.541935</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57121.086314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2015-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80880</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1924479.4600519</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22223353.548076</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54189.814799</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2015-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81351</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1971270.1404285</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21475748.258786</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58554.830777</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2015-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81926</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1987440.6237336</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20229021.227129</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>62094.602606</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2015-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82616</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1998794.9032875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18719330.242236</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59163.635883</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2015-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83085</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2030537.2029247</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20821169.764705</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>65120.495928</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2016-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83510</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2041671.7216261</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21555171.631901</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>66618.994298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2016-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83963</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2072161.4467205</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17695445.245454</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>63357.640106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2016-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>84612</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2031927.4084054</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17604963.926605</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>64551.983031</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2016-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>85226</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1968393.6755684</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16988172.308868</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>66605.62822</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2016-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>85827</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1970117.9952346</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17965117.899696</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>67214.70988</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2016-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>86425</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1961721.4547873</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19095247.081818</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>68594.36186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2016-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87039</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1911051.2713955</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19439537.327327</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>68911.196222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2016-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87674</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1878564.7729429</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21370034.966565</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>66672.450838</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2016-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88058</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1900007.3160984</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22181077.578313</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70378.666197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2016-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88584</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1874753.4390973</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22661920.165662</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70412.058311</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2016-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89114</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1799775.8892317</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22610509.235474</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>67317.369389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2016-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89630</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1836439.367455</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22375770.593272</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73057.21358</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2017-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>90483</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1889426.9307162</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23209252.959876</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70395.035241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2017-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>90719</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1901417.2794122</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25101508.521604</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>72168.912164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2017-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91402</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1880110.1685521</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23863579.64</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73220.48515</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2017-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91928</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1849535.8979745</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22768185.237654</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75403.9887</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2017-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>92303</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1864009.7498564</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21075147.276923</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78143.553359</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2017-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>92597</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1881398.2621791</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21516528.96636</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82146.406543</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2017-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93180</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1844734.2784073</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21429270.909365</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78540.76819</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2017-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93793</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1835984.5799686</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21082816.643916</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82071.478537</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2017-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>94129</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1832162.4674436</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22104377.819242</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83847.302627</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2017-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>94947</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1772727.5584168</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20446174.293956</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80496.712008</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2017-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>95528</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1755635.4406038</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17098067.973753</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83529.298732</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2017-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96075</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1834156.8989331</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16119910.984848</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>90863.088478</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96567</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1824272.6594281</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15761324.758706</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88502.044795</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>97027</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1857442.6251043</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15425897.283251</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>90834.117313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>97626</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1872013.6255198</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15696412.427536</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>94331.901468</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>98182</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1869071.4725204</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15486275.488095</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89957.292099</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>98687</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1877802.2224406</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15162528.054502</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96537.428638</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99034</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1887683.0181957</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15915767.153664</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>100861.181509</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99590</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1868875.8558489</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15766390.342657</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>94129.219208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>100344</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1844783.3759168</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16084535.226107</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99677.592767</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>100724</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1880538.2408164</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15458152.411627</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99593.761101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>101600</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1820531.3412106</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15400213.37587</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99053.75974</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>102339</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1759491.3103997</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15041322.644341</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>101145.056641</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103096</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1818667.0698378</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14980132.118993</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108444.380774</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103797</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1822823.3340462</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14709857.077272</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>107320.829139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>104393</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1860861.8334754</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14377578.745454</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110246.595111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>105205</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1862497.6789411</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15089748.461187</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113817.3619</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>106071</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1823778.2245477</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15465797.904977</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112552.685027</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>107085</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1816122.7193631</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15466255.373033</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>119374.443533</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>107934</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1822859.2434821</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>446</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14865390.006726</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120166.553095</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>109024</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1830791.0074754</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14876183.053333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>115958.34786</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>109956</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1818935.7003528</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>447</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15111660.322147</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121445.797306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111931</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1867404.605632</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14550468.952069</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>115487.517537</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112494</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1830367.8817092</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14868931.894168</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122584.350055</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112855</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1865772.7717513</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16778637.412766</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>125627.704766</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113336</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1958031.6257323</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15415977.353556</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>126820.0214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113725</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1902836.8304506</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14946260.309426</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132934.836929</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114145</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1943063.3838013</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15183439.688888</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>135331.332858</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114484</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2016318.12027</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14062331.704854</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>136782.66219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114260</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2134558.8148083</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>525</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14765597.779047</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>156963.245934</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114137</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2302398.6101527</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14677515.889925</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>162518.012457</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114136</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2510793.6984825</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14962715.994434</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>162665.151319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114485</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2552073.4240904</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14261056.326568</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>178412.833007</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114844</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2746195.6595729</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14474408.137931</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>332402.096955</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>115341</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3001383.8184427</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>571</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15745141.022767</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>333984.33514</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>116191</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3071869.045494</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19734908.486394</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>306157.705739</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>117165</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3019694.5259761</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>610</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18386040.781967</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>273375.39938</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>115779</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3113983.8674198</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>607</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17761730.168039</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>383707.387025</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +2172,7 @@
         <x:v>364643.385065</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +2192,7 @@
         <x:v>341170.668058</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +2212,7 @@
         <x:v>327877.899647</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +2232,7 @@
         <x:v>341000.616371</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +2252,7 @@
         <x:v>456278.736871</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +2272,7 @@
         <x:v>434186.982578</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +2292,7 @@
         <x:v>436154.834174</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +2312,7 @@
         <x:v>416177.439217</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +2332,7 @@
         <x:v>413910.878182</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +2352,7 @@
         <x:v>398273.785093</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +2372,7 @@
         <x:v>382398.79784</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +2392,7 @@
         <x:v>381179.853611</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +2412,7 @@
         <x:v>354486.231033</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +2432,7 @@
         <x:v>339233.041821</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +2452,7 @@
         <x:v>322519.035592</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +2472,7 @@
         <x:v>318469.623342</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +2492,7 @@
         <x:v>305180.372114</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +2512,7 @@
         <x:v>295350.178853</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +2532,7 @@
         <x:v>290385.027399</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +2552,7 @@
         <x:v>279971.693207</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +2572,7 @@
         <x:v>280375.407124</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +2592,7 @@
         <x:v>270457.539482</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +2612,7 @@
         <x:v>259273.644114</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +2632,7 @@
         <x:v>265717.368088</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +2652,7 @@
         <x:v>257197.031489</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +2672,7 @@
         <x:v>257655.824342</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +2692,7 @@
         <x:v>255021.832124</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +2712,7 @@
         <x:v>257662.762687</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +2732,7 @@
         <x:v>246472.7096</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +2752,7 @@
         <x:v>251398.431907</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +2772,7 @@
         <x:v>236629.846516</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +2792,7 @@
         <x:v>236109.412976</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +2812,7 @@
         <x:v>242461.321541</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +2832,7 @@
         <x:v>234511.61355</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +2852,7 @@
         <x:v>232379.338732</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +2872,7 @@
         <x:v>244002.895292</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +2892,7 @@
         <x:v>243347.568791</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +2912,7 @@
         <x:v>248652.826779</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +2932,7 @@
         <x:v>249941.089662</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +2952,7 @@
         <x:v>244481.991504</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +2972,7 @@
         <x:v>249321.382102</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +2992,7 @@
         <x:v>249147.056335</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +3012,7 @@
         <x:v>238640.955846</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
